--- a/Original Excel Files/B1-99.xlsx
+++ b/Original Excel Files/B1-99.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4957C8E5-C537-47FB-8FFF-70143752FF6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="525">
   <si>
     <t>B1 .D54 v 7 n 7-8</t>
   </si>
@@ -75,12 +76,6 @@
     <t>William P.</t>
   </si>
   <si>
-    <t>Brandt</t>
-  </si>
-  <si>
-    <t>Richard B.</t>
-  </si>
-  <si>
     <t>1967 H</t>
   </si>
   <si>
@@ -255,12 +250,6 @@
     <t>Marcus G.</t>
   </si>
   <si>
-    <t>Ammerman</t>
-  </si>
-  <si>
-    <t>Robert R.</t>
-  </si>
-  <si>
     <t>Introductory Readings in Philosophy</t>
   </si>
   <si>
@@ -273,9 +262,6 @@
     <t>Paula Rothenberg</t>
   </si>
   <si>
-    <t>Karsten J.</t>
-  </si>
-  <si>
     <t>1972 P</t>
   </si>
   <si>
@@ -291,9 +277,6 @@
     <t>Frank A.</t>
   </si>
   <si>
-    <t>et al.</t>
-  </si>
-  <si>
     <t>Introductory Philosophy</t>
   </si>
   <si>
@@ -306,12 +289,6 @@
     <t>Harold H.</t>
   </si>
   <si>
-    <t>Hepp</t>
-  </si>
-  <si>
-    <t>Maylon H.</t>
-  </si>
-  <si>
     <t>1970 H</t>
   </si>
   <si>
@@ -348,12 +325,6 @@
     <t>A.K.</t>
   </si>
   <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>James A.</t>
-  </si>
-  <si>
     <t>Philosophy for a New Generation</t>
   </si>
   <si>
@@ -405,9 +376,6 @@
     <t>Martin</t>
   </si>
   <si>
-    <t>Raymond</t>
-  </si>
-  <si>
     <t>2006 P</t>
   </si>
   <si>
@@ -483,12 +451,6 @@
     <t>James C.</t>
   </si>
   <si>
-    <t>MacDonald</t>
-  </si>
-  <si>
-    <t>Douglas M.</t>
-  </si>
-  <si>
     <t>1985 P</t>
   </si>
   <si>
@@ -630,12 +592,6 @@
     <t>Joseph A.</t>
   </si>
   <si>
-    <t>Wiehe</t>
-  </si>
-  <si>
-    <t>Roger E.</t>
-  </si>
-  <si>
     <t>1993 O</t>
   </si>
   <si>
@@ -768,12 +724,6 @@
     <t>Charles J.</t>
   </si>
   <si>
-    <t>Odell</t>
-  </si>
-  <si>
-    <t>S. Jack</t>
-  </si>
-  <si>
     <t>The Owl of Minerva: Philosophers on Philosophy</t>
   </si>
   <si>
@@ -1195,12 +1145,6 @@
   </si>
   <si>
     <t>Laurence</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Ann</t>
   </si>
   <si>
     <t>2005 P</t>
@@ -1653,7 +1597,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1727,7 +1671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1759,6 +1703,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1768,6 +1720,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1816,7 +1771,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1849,9 +1804,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1884,6 +1856,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2059,11 +2048,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2095,57 +2084,55 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>479</v>
+        <v>460</v>
       </c>
       <c r="B4" s="10"/>
       <c r="C4" s="9" t="s">
-        <v>480</v>
+        <v>461</v>
       </c>
       <c r="D4" s="11">
         <v>2006</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>481</v>
+        <v>462</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
@@ -2187,27 +2174,19 @@
       <c r="E6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12"/>
       <c r="H7" s="13"/>
@@ -2215,17 +2194,17 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="11">
         <v>1998</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
@@ -2234,38 +2213,36 @@
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="E9" s="13" t="s">
         <v>31</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>33</v>
       </c>
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11">
         <v>1967</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -2274,17 +2251,17 @@
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D11" s="11">
         <v>1971</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="13"/>
       <c r="G11" s="12"/>
@@ -2293,35 +2270,35 @@
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D12" s="13">
         <v>1966</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G12" s="14"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B13" s="10"/>
       <c r="C13" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D13" s="11">
         <v>1998</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="12"/>
@@ -2330,38 +2307,36 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="D14" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="E14" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>51</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="12">
         <v>1963</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -2370,17 +2345,17 @@
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" s="11">
         <v>1996</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
@@ -2389,17 +2364,17 @@
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
-        <v>485</v>
+        <v>463</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="9" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D17" s="11">
         <v>2000</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>486</v>
+        <v>465</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
@@ -2408,17 +2383,17 @@
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B18" s="10"/>
       <c r="C18" s="9" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D18" s="11">
         <v>2000</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
@@ -2427,17 +2402,17 @@
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
-        <v>487</v>
+        <v>468</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="9" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D19" s="11">
         <v>2000</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>488</v>
+        <v>469</v>
       </c>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
@@ -2446,17 +2421,17 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
-        <v>489</v>
+        <v>470</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="9" t="s">
-        <v>483</v>
+        <v>464</v>
       </c>
       <c r="D20" s="11">
         <v>2000</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
@@ -2465,80 +2440,74 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="D21" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="E21" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>62</v>
       </c>
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="D22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="E22" s="13" t="s">
         <v>65</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="D23" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="E23" s="13" t="s">
         <v>70</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B24" s="10"/>
       <c r="C24" s="9" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D24" s="11">
         <v>1990</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="12"/>
@@ -2547,136 +2516,112 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="D25" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>87</v>
       </c>
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="H27" s="13"/>
       <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="G28" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>103</v>
+        <v>94</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>95</v>
       </c>
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B30" s="10"/>
       <c r="C30" s="9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D30" s="11">
         <v>1992</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F30" s="13"/>
       <c r="G30" s="12"/>
@@ -2685,42 +2630,36 @@
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D32" s="11">
         <v>1955</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="12"/>
@@ -2729,17 +2668,17 @@
     </row>
     <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B33" s="10"/>
       <c r="C33" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D33" s="11">
         <v>1985</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F33" s="13"/>
       <c r="G33" s="12"/>
@@ -2748,17 +2687,17 @@
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B34" s="10"/>
       <c r="C34" s="9" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="D34" s="11">
         <v>1999</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="12"/>
@@ -2767,84 +2706,74 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="13"/>
-      <c r="F35" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>124</v>
+        <v>112</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>135</v>
+        <v>118</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>124</v>
       </c>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
-        <v>491</v>
+        <v>472</v>
       </c>
       <c r="B38" s="10"/>
       <c r="C38" s="9" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
       <c r="D38" s="11">
         <v>1972</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="F38" s="13"/>
       <c r="G38" s="13"/>
@@ -2853,15 +2782,15 @@
     </row>
     <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
-        <v>494</v>
+        <v>475</v>
       </c>
       <c r="B39" s="7"/>
       <c r="C39" s="6" t="s">
-        <v>495</v>
+        <v>476</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="6" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="F39" s="15"/>
       <c r="G39" s="15"/>
@@ -2870,36 +2799,36 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="H40" s="15"/>
       <c r="I40" s="15"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D41" s="1">
         <v>1972</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -2908,17 +2837,17 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="D42" s="1">
         <v>1972</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -2927,17 +2856,17 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1">
         <v>1972</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -2946,17 +2875,17 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D44" s="1">
         <v>1994</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -2965,116 +2894,110 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="15" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="15" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C46" s="15"/>
       <c r="D46" s="15" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B50" s="12"/>
       <c r="C50" s="12" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D50" s="12">
         <v>1999</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
@@ -3083,38 +3006,36 @@
     </row>
     <row r="51" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="D51" s="13"/>
-      <c r="E51" s="13"/>
-      <c r="F51" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G51" s="13" t="s">
-        <v>182</v>
+        <v>167</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>169</v>
       </c>
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
     </row>
     <row r="52" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B52" s="10"/>
       <c r="C52" s="9" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D52" s="11">
         <v>1982</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>499</v>
+        <v>480</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="12"/>
@@ -3123,17 +3044,17 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="B53" s="12"/>
       <c r="C53" s="12" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D53" s="12">
         <v>1966</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="F53" s="12"/>
       <c r="G53" s="12"/>
@@ -3142,38 +3063,36 @@
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
-      <c r="F54" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>190</v>
+        <v>175</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>177</v>
       </c>
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
     </row>
     <row r="55" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="B55" s="10"/>
       <c r="C55" s="9" t="s">
-        <v>501</v>
+        <v>482</v>
       </c>
       <c r="D55" s="11">
         <v>1972</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>502</v>
+        <v>483</v>
       </c>
       <c r="F55" s="12"/>
       <c r="G55" s="12"/>
@@ -3182,83 +3101,71 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="13" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
-      <c r="F56" s="13" t="s">
-        <v>194</v>
-      </c>
-      <c r="G56" s="13" t="s">
-        <v>195</v>
+        <v>180</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>182</v>
       </c>
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
-      <c r="F57" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="G57" s="13" t="s">
-        <v>200</v>
+        <v>185</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>187</v>
       </c>
       <c r="H57" s="13"/>
       <c r="I57" s="13"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="G58" s="13" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="D59" s="13"/>
-      <c r="E59" s="13"/>
+        <v>193</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="F59" s="13"/>
       <c r="G59" s="13"/>
       <c r="H59" s="13"/>
@@ -3266,16 +3173,14 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="D60" s="13"/>
-      <c r="E60" s="13"/>
+        <v>196</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>197</v>
+      </c>
       <c r="F60" s="13"/>
       <c r="G60" s="13"/>
       <c r="H60" s="13"/>
@@ -3283,16 +3188,14 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>214</v>
-      </c>
-      <c r="D61" s="13"/>
-      <c r="E61" s="13"/>
+        <v>198</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>199</v>
+      </c>
       <c r="F61" s="13"/>
       <c r="G61" s="13"/>
       <c r="H61" s="13"/>
@@ -3300,16 +3203,14 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="13" t="s">
-        <v>215</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="D62" s="13"/>
-      <c r="E62" s="13"/>
+        <v>200</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>201</v>
+      </c>
       <c r="F62" s="13"/>
       <c r="G62" s="13"/>
       <c r="H62" s="13"/>
@@ -3317,16 +3218,14 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D63" s="13"/>
-      <c r="E63" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>203</v>
+      </c>
       <c r="F63" s="13"/>
       <c r="G63" s="13"/>
       <c r="H63" s="13"/>
@@ -3334,16 +3233,14 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
+        <v>204</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>206</v>
+      </c>
       <c r="F64" s="13"/>
       <c r="G64" s="12"/>
       <c r="H64" s="13"/>
@@ -3351,16 +3248,14 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="D65" s="13"/>
-      <c r="E65" s="13"/>
+        <v>207</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>209</v>
+      </c>
       <c r="F65" s="13"/>
       <c r="G65" s="12"/>
       <c r="H65" s="13"/>
@@ -3368,16 +3263,14 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
+        <v>210</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>212</v>
+      </c>
       <c r="F66" s="13"/>
       <c r="G66" s="13"/>
       <c r="H66" s="13"/>
@@ -3385,17 +3278,17 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="9" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D67" s="11">
         <v>2005</v>
       </c>
       <c r="E67" s="9" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
@@ -3403,35 +3296,33 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
+        <v>217</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>219</v>
+      </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>234</v>
-      </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
-        <v>503</v>
+        <v>484</v>
       </c>
       <c r="B69" s="10"/>
       <c r="C69" s="9" t="s">
-        <v>504</v>
+        <v>485</v>
       </c>
       <c r="D69" s="11">
         <v>1996</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="F69" s="13"/>
       <c r="G69" s="13"/>
@@ -3439,17 +3330,17 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B70" s="10"/>
       <c r="C70" s="9" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="D70" s="11">
         <v>1998</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="F70" s="13"/>
       <c r="G70" s="13"/>
@@ -3457,19 +3348,19 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="D71" s="13">
         <v>2005</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="F71" s="14"/>
       <c r="G71" s="14"/>
@@ -3477,17 +3368,17 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="9" t="s">
-        <v>505</v>
+        <v>486</v>
       </c>
       <c r="B72" s="10"/>
       <c r="C72" s="9" t="s">
-        <v>506</v>
+        <v>487</v>
       </c>
       <c r="D72" s="11">
         <v>1946</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>507</v>
+        <v>488</v>
       </c>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -3496,124 +3387,112 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="13" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="G73" s="13" t="s">
-        <v>246</v>
+        <v>230</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="5"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="13" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>250</v>
+        <v>59</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="F74" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G74" s="13" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="5"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="13" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" s="13" t="s">
-        <v>257</v>
+        <v>238</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>240</v>
       </c>
       <c r="H75" s="13"/>
       <c r="I75" s="5"/>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="13" t="s">
-        <v>530</v>
+        <v>511</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>531</v>
+        <v>512</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>532</v>
+        <v>513</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>533</v>
+        <v>514</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="5"/>
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>260</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>262</v>
+        <v>243</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="5"/>
     </row>
     <row r="78" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>508</v>
+        <v>489</v>
       </c>
       <c r="B78" s="10"/>
       <c r="C78" s="9" t="s">
-        <v>509</v>
+        <v>490</v>
       </c>
       <c r="D78" s="11">
         <v>1970</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>510</v>
+        <v>491</v>
       </c>
       <c r="F78" s="13"/>
       <c r="G78" s="13"/>
@@ -3622,38 +3501,36 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
-      <c r="F79" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="G79" s="13" t="s">
-        <v>266</v>
+        <v>112</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="H79" s="13"/>
       <c r="I79" s="5"/>
     </row>
     <row r="80" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="9" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="B80" s="10"/>
       <c r="C80" s="9" t="s">
-        <v>498</v>
+        <v>479</v>
       </c>
       <c r="D80" s="11">
         <v>1980</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>512</v>
+        <v>493</v>
       </c>
       <c r="F80" s="13"/>
       <c r="G80" s="13"/>
@@ -3662,17 +3539,17 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="B81" s="12"/>
       <c r="C81" s="12" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="D81" s="12">
         <v>1961</v>
       </c>
       <c r="E81" s="12" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="F81" s="12"/>
       <c r="G81" s="13"/>
@@ -3681,124 +3558,112 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
-      <c r="F82" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G82" s="13" t="s">
-        <v>273</v>
+        <v>255</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>256</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="5"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="13" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E83" s="14"/>
-      <c r="F83" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="G83" s="13" t="s">
-        <v>278</v>
+        <v>260</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>261</v>
       </c>
       <c r="H83" s="13"/>
       <c r="I83" s="5"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="13" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
-      <c r="F84" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="G84" s="13" t="s">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="H84" s="13"/>
       <c r="I84" s="5"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="13" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
-      <c r="F85" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="D85" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G85" s="13" t="s">
-        <v>287</v>
+      <c r="E85" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="5"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>290</v>
-      </c>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
-      <c r="F86" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="G86" s="13" t="s">
-        <v>291</v>
+        <v>273</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="H86" s="13"/>
       <c r="I86" s="5"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="9" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="9" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="D87" s="11">
         <v>1968</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="F87" s="13"/>
       <c r="G87" s="13"/>
@@ -3806,59 +3671,55 @@
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="13" t="s">
-        <v>535</v>
+        <v>516</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>536</v>
+        <v>517</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
-      <c r="F88" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D88" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G88" s="13" t="s">
-        <v>538</v>
+      <c r="E88" s="13" t="s">
+        <v>519</v>
       </c>
       <c r="H88" s="13"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="13" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
-      <c r="F89" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>299</v>
+        <v>280</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>282</v>
       </c>
       <c r="H89" s="13"/>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="13" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="D90" s="13">
         <v>1954</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="F90" s="14"/>
       <c r="G90" s="14"/>
@@ -3868,7 +3729,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="B91" s="12"/>
       <c r="C91" s="12" t="s">
@@ -3878,7 +3739,7 @@
         <v>1970</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="F91" s="12"/>
       <c r="G91" s="12"/>
@@ -3886,17 +3747,17 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="B92" s="12"/>
       <c r="C92" s="12" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="D92" s="12">
         <v>1985</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>308</v>
+        <v>291</v>
       </c>
       <c r="F92" s="12"/>
       <c r="G92" s="12"/>
@@ -3904,17 +3765,17 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>309</v>
+        <v>292</v>
       </c>
       <c r="B93" s="12"/>
       <c r="C93" s="12" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D93" s="12">
         <v>2002</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>311</v>
+        <v>294</v>
       </c>
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
@@ -3922,17 +3783,17 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>312</v>
+        <v>295</v>
       </c>
       <c r="B94" s="12"/>
       <c r="C94" s="12" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="D94" s="12">
         <v>2002</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="F94" s="12"/>
       <c r="G94" s="12"/>
@@ -3940,17 +3801,17 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="12" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="B95" s="12"/>
       <c r="C95" s="12" t="s">
-        <v>315</v>
+        <v>298</v>
       </c>
       <c r="D95" s="12">
         <v>1999</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>316</v>
+        <v>299</v>
       </c>
       <c r="F95" s="12"/>
       <c r="G95" s="12"/>
@@ -3958,17 +3819,17 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="9" t="s">
-        <v>523</v>
+        <v>300</v>
       </c>
       <c r="B96" s="10"/>
       <c r="C96" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D96" s="11">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>524</v>
+        <v>302</v>
       </c>
       <c r="F96" s="13"/>
       <c r="G96" s="13"/>
@@ -3976,17 +3837,17 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="9" t="s">
-        <v>525</v>
+        <v>303</v>
       </c>
       <c r="B97" s="10"/>
       <c r="C97" s="9" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
       <c r="D97" s="11">
-        <v>1963</v>
+        <v>1985</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>526</v>
+        <v>304</v>
       </c>
       <c r="F97" s="13"/>
       <c r="G97" s="13"/>
@@ -3994,263 +3855,275 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="9" t="s">
-        <v>513</v>
+        <v>305</v>
       </c>
       <c r="B98" s="10"/>
       <c r="C98" s="9" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="D98" s="11">
-        <v>1963</v>
+        <v>1962</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>514</v>
+        <v>307</v>
       </c>
       <c r="F98" s="13"/>
       <c r="G98" s="13"/>
       <c r="H98" s="13"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D99" s="11">
-        <v>1963</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="F99" s="13"/>
-      <c r="G99" s="13"/>
-      <c r="H99" s="13"/>
+      <c r="A99" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="B99" s="18" t="s">
+        <v>309</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>310</v>
+      </c>
+      <c r="D99" s="13">
+        <v>1995</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+      <c r="J99" s="13"/>
     </row>
     <row r="100" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="9" t="s">
-        <v>517</v>
+        <v>317</v>
       </c>
       <c r="B100" s="10"/>
       <c r="C100" s="9" t="s">
         <v>318</v>
       </c>
       <c r="D100" s="11">
-        <v>1963</v>
+        <v>1950</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>518</v>
+        <v>319</v>
       </c>
       <c r="F100" s="13"/>
       <c r="G100" s="13"/>
       <c r="H100" s="13"/>
+      <c r="I100" s="13"/>
+      <c r="J100" s="13"/>
     </row>
     <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="9" t="s">
-        <v>519</v>
+        <v>320</v>
       </c>
       <c r="B101" s="10"/>
       <c r="C101" s="9" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="D101" s="11">
-        <v>1963</v>
+        <v>1957</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>520</v>
+        <v>322</v>
       </c>
       <c r="F101" s="13"/>
       <c r="G101" s="13"/>
       <c r="H101" s="13"/>
+      <c r="I101" s="13"/>
+      <c r="J101" s="13"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D102" s="11">
-        <v>1963</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
+      <c r="A102" s="18" t="s">
+        <v>323</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="D102" s="18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E102" s="18" t="s">
+        <v>327</v>
+      </c>
       <c r="H102" s="13"/>
+      <c r="I102" s="13"/>
+      <c r="J102" s="13"/>
     </row>
     <row r="103" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="9" t="s">
-        <v>317</v>
-      </c>
-      <c r="B103" s="10"/>
+        <v>328</v>
+      </c>
+      <c r="B103" s="9"/>
       <c r="C103" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D103" s="11">
-        <v>1985</v>
+        <v>329</v>
+      </c>
+      <c r="D103" s="9">
+        <v>1969</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
+        <v>330</v>
+      </c>
+      <c r="F103" s="12"/>
+      <c r="G103" s="12"/>
       <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="13"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="9" t="s">
-        <v>320</v>
-      </c>
-      <c r="B104" s="10"/>
+        <v>331</v>
+      </c>
+      <c r="B104" s="9"/>
       <c r="C104" s="9" t="s">
-        <v>318</v>
-      </c>
-      <c r="D104" s="11">
-        <v>1985</v>
+        <v>329</v>
+      </c>
+      <c r="D104" s="9">
+        <v>1969</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>321</v>
-      </c>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
+        <v>332</v>
+      </c>
+      <c r="F104" s="12"/>
+      <c r="G104" s="12"/>
       <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="13"/>
     </row>
     <row r="105" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="B105" s="10"/>
+        <v>333</v>
+      </c>
+      <c r="B105" s="9"/>
       <c r="C105" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="D105" s="11">
-        <v>1962</v>
+        <v>329</v>
+      </c>
+      <c r="D105" s="9">
+        <v>1969</v>
       </c>
       <c r="E105" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
+        <v>334</v>
+      </c>
+      <c r="F105" s="12"/>
+      <c r="G105" s="12"/>
       <c r="H105" s="13"/>
+      <c r="I105" s="13"/>
+      <c r="J105" s="13"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13" t="s">
-        <v>325</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="13">
-        <v>1995</v>
-      </c>
-      <c r="I106" s="13" t="s">
-        <v>328</v>
-      </c>
+      <c r="A106" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="B106" s="19"/>
+      <c r="C106" s="17" t="s">
+        <v>336</v>
+      </c>
+      <c r="D106" s="20">
+        <v>1970</v>
+      </c>
+      <c r="E106" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
       <c r="J106" s="13"/>
     </row>
     <row r="107" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="9" t="s">
-        <v>334</v>
-      </c>
-      <c r="B107" s="10"/>
+        <v>338</v>
+      </c>
+      <c r="B107" s="9"/>
       <c r="C107" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="D107" s="11">
-        <v>1950</v>
+        <v>329</v>
+      </c>
+      <c r="D107" s="9">
+        <v>1975</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F107" s="13"/>
-      <c r="G107" s="13"/>
+        <v>339</v>
+      </c>
+      <c r="F107" s="12"/>
+      <c r="G107" s="12"/>
       <c r="H107" s="13"/>
       <c r="I107" s="13"/>
       <c r="J107" s="13"/>
     </row>
     <row r="108" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="B108" s="10"/>
+        <v>340</v>
+      </c>
+      <c r="B108" s="9"/>
       <c r="C108" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="D108" s="11">
-        <v>1957</v>
+        <v>329</v>
+      </c>
+      <c r="D108" s="9">
+        <v>1975</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F108" s="13"/>
-      <c r="G108" s="13"/>
+        <v>341</v>
+      </c>
+      <c r="F108" s="12"/>
+      <c r="G108" s="12"/>
       <c r="H108" s="13"/>
       <c r="I108" s="13"/>
       <c r="J108" s="13"/>
     </row>
     <row r="109" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="C109" s="13" t="s">
+      <c r="A109" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D109" s="13" t="s">
+      <c r="B109" s="12"/>
+      <c r="C109" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="E109" s="13" t="s">
+      <c r="D109" s="12">
+        <v>1997</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>344</v>
       </c>
+      <c r="F109" s="12"/>
+      <c r="G109" s="12"/>
       <c r="H109" s="13"/>
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="B110" s="10"/>
+        <v>345</v>
+      </c>
+      <c r="B110" s="9"/>
       <c r="C110" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="D110" s="11">
-        <v>1970</v>
+        <v>346</v>
+      </c>
+      <c r="D110" s="9">
+        <v>1998</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="F110" s="13"/>
-      <c r="G110" s="13"/>
+        <v>347</v>
+      </c>
+      <c r="F110" s="12"/>
+      <c r="G110" s="12"/>
       <c r="H110" s="13"/>
       <c r="I110" s="13"/>
       <c r="J110" s="13"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D111" s="12">
-        <v>1969</v>
+        <v>1974</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
@@ -4260,17 +4133,17 @@
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B112" s="12"/>
       <c r="C112" s="12" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="D112" s="12">
-        <v>1969</v>
+        <v>1955</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
@@ -4279,58 +4152,58 @@
       <c r="J112" s="13"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
-        <v>350</v>
-      </c>
-      <c r="B113" s="12"/>
-      <c r="C113" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D113" s="12">
-        <v>1969</v>
-      </c>
-      <c r="E113" s="12" t="s">
-        <v>351</v>
-      </c>
-      <c r="F113" s="12"/>
-      <c r="G113" s="12"/>
+      <c r="A113" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>358</v>
+      </c>
       <c r="H113" s="13"/>
       <c r="I113" s="13"/>
       <c r="J113" s="13"/>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
-        <v>355</v>
-      </c>
-      <c r="B114" s="12"/>
-      <c r="C114" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="D114" s="12">
-        <v>1975</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="F114" s="12"/>
-      <c r="G114" s="12"/>
+      <c r="A114" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B114" s="19"/>
+      <c r="C114" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="D114" s="20">
+        <v>1987</v>
+      </c>
+      <c r="E114" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="F114" s="13"/>
+      <c r="G114" s="13"/>
       <c r="H114" s="13"/>
       <c r="I114" s="13"/>
       <c r="J114" s="13"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B115" s="12"/>
       <c r="C115" s="12" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="D115" s="12">
-        <v>1975</v>
+        <v>2000</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
@@ -4340,17 +4213,17 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="12" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B116" s="12"/>
       <c r="C116" s="12" t="s">
         <v>360</v>
       </c>
       <c r="D116" s="12">
-        <v>1997</v>
+        <v>2000</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="F116" s="12"/>
       <c r="G116" s="12"/>
@@ -4359,58 +4232,58 @@
       <c r="J116" s="13"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="B117" s="12"/>
-      <c r="C117" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="D117" s="12">
-        <v>1998</v>
-      </c>
-      <c r="E117" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="F117" s="12"/>
-      <c r="G117" s="12"/>
+      <c r="A117" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>316</v>
+      </c>
       <c r="H117" s="13"/>
       <c r="I117" s="13"/>
       <c r="J117" s="13"/>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A118" s="12" t="s">
-        <v>365</v>
-      </c>
-      <c r="B118" s="12"/>
-      <c r="C118" s="12" t="s">
+      <c r="A118" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="D118" s="12">
-        <v>1974</v>
-      </c>
-      <c r="E118" s="12" t="s">
+      <c r="B118" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F118" s="12"/>
-      <c r="G118" s="12"/>
+      <c r="C118" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>370</v>
+      </c>
       <c r="H118" s="13"/>
       <c r="I118" s="13"/>
       <c r="J118" s="13"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B119" s="12"/>
       <c r="C119" s="12" t="s">
-        <v>369</v>
+        <v>54</v>
       </c>
       <c r="D119" s="12">
-        <v>1955</v>
+        <v>2000</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
@@ -4420,21 +4293,19 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B120" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="G120" s="13" t="s">
         <v>375</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>377</v>
       </c>
       <c r="H120" s="13"/>
       <c r="I120" s="13"/>
@@ -4442,17 +4313,17 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="9" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="9" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D121" s="11">
-        <v>1987</v>
+        <v>1999</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F121" s="13"/>
       <c r="G121" s="13"/>
@@ -4461,18 +4332,18 @@
       <c r="J121" s="13"/>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A122" s="12" t="s">
-        <v>379</v>
+      <c r="A122" s="16" t="s">
+        <v>383</v>
       </c>
       <c r="B122" s="12"/>
       <c r="C122" s="12" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D122" s="12">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F122" s="12"/>
       <c r="G122" s="12"/>
@@ -4482,17 +4353,17 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B123" s="12"/>
       <c r="C123" s="12" t="s">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="D123" s="12">
-        <v>2000</v>
+        <v>1945</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
@@ -4501,82 +4372,78 @@
       <c r="J123" s="13"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>330</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>333</v>
-      </c>
+      <c r="A124" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="B124" s="12"/>
+      <c r="C124" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D124" s="12">
+        <v>1997</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>389</v>
+      </c>
+      <c r="F124" s="12"/>
+      <c r="G124" s="12"/>
       <c r="H124" s="13"/>
       <c r="I124" s="13"/>
       <c r="J124" s="13"/>
     </row>
     <row r="125" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="C125" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>387</v>
-      </c>
+      <c r="A125" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D125" s="12">
+        <v>1996</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="F125" s="12"/>
+      <c r="G125" s="12"/>
       <c r="H125" s="13"/>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="D126" s="11">
-        <v>1997</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
+      <c r="A126" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>394</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>396</v>
+      </c>
       <c r="H126" s="13"/>
       <c r="I126" s="13"/>
       <c r="J126" s="13"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" s="12" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B127" s="12"/>
       <c r="C127" s="12" t="s">
-        <v>56</v>
+        <v>397</v>
       </c>
       <c r="D127" s="12">
-        <v>2000</v>
+        <v>1988</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="F127" s="12"/>
       <c r="G127" s="12"/>
@@ -4585,44 +4452,38 @@
       <c r="J127" s="13"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="D128" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>396</v>
-      </c>
+      <c r="A128" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B128" s="12"/>
+      <c r="C128" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1991</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="F128" s="12"/>
+      <c r="G128" s="12"/>
       <c r="H128" s="13"/>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
     </row>
     <row r="129" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="9" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="9" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D129" s="11">
-        <v>1999</v>
+        <v>1991</v>
       </c>
       <c r="E129" s="9" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F129" s="13"/>
       <c r="G129" s="13"/>
@@ -4631,41 +4492,41 @@
       <c r="J129" s="13"/>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="B130" s="12"/>
-      <c r="C130" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D130" s="12">
+      <c r="A130" s="17" t="s">
+        <v>403</v>
+      </c>
+      <c r="B130" s="19"/>
+      <c r="C130" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="D130" s="20">
         <v>2004</v>
       </c>
-      <c r="E130" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="F130" s="12"/>
-      <c r="G130" s="12"/>
+      <c r="E130" s="17" t="s">
+        <v>404</v>
+      </c>
+      <c r="F130" s="13"/>
+      <c r="G130" s="13"/>
       <c r="H130" s="13"/>
       <c r="I130" s="13"/>
       <c r="J130" s="13"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="12" t="s">
-        <v>403</v>
+      <c r="A131" s="16" t="s">
+        <v>405</v>
       </c>
       <c r="B131" s="12"/>
       <c r="C131" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D131" s="12">
+        <v>2004</v>
+      </c>
+      <c r="E131" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="D131" s="12">
-        <v>1945</v>
-      </c>
-      <c r="E131" s="12" t="s">
-        <v>405</v>
-      </c>
       <c r="F131" s="12"/>
-      <c r="G131" s="12"/>
+      <c r="G131" s="13"/>
       <c r="H131" s="13"/>
       <c r="I131" s="13"/>
       <c r="J131" s="13"/>
@@ -4679,7 +4540,7 @@
         <v>407</v>
       </c>
       <c r="D132" s="12">
-        <v>1997</v>
+        <v>1964</v>
       </c>
       <c r="E132" s="12" t="s">
         <v>408</v>
@@ -4696,13 +4557,13 @@
       </c>
       <c r="B133" s="12"/>
       <c r="C133" s="12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D133" s="12">
-        <v>1996</v>
+        <v>1921</v>
       </c>
       <c r="E133" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F133" s="12"/>
       <c r="G133" s="12"/>
@@ -4711,180 +4572,164 @@
       <c r="J133" s="13"/>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="D134" s="13"/>
-      <c r="E134" s="13"/>
-      <c r="F134" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>415</v>
-      </c>
+      <c r="A134" s="17" t="s">
+        <v>494</v>
+      </c>
+      <c r="B134" s="19"/>
+      <c r="C134" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D134" s="20">
+        <v>1963</v>
+      </c>
+      <c r="E134" s="17" t="s">
+        <v>495</v>
+      </c>
+      <c r="F134" s="13"/>
+      <c r="G134" s="13"/>
       <c r="H134" s="13"/>
-      <c r="I134" s="13"/>
-      <c r="J134" s="13"/>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A135" s="12" t="s">
-        <v>418</v>
-      </c>
-      <c r="B135" s="12"/>
-      <c r="C135" s="12" t="s">
-        <v>416</v>
-      </c>
-      <c r="D135" s="12">
-        <v>1988</v>
-      </c>
-      <c r="E135" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="F135" s="12"/>
-      <c r="G135" s="12"/>
+      <c r="A135" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="B135" s="19"/>
+      <c r="C135" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" s="20">
+        <v>1963</v>
+      </c>
+      <c r="E135" s="17" t="s">
+        <v>497</v>
+      </c>
+      <c r="F135" s="13"/>
+      <c r="G135" s="13"/>
       <c r="H135" s="13"/>
-      <c r="I135" s="13"/>
-      <c r="J135" s="13"/>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A136" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="B136" s="12"/>
-      <c r="C136" s="12" t="s">
-        <v>420</v>
-      </c>
-      <c r="D136" s="12">
-        <v>1991</v>
-      </c>
-      <c r="E136" s="12" t="s">
-        <v>421</v>
-      </c>
-      <c r="F136" s="12"/>
-      <c r="G136" s="12"/>
+      <c r="A136" s="17" t="s">
+        <v>498</v>
+      </c>
+      <c r="B136" s="19"/>
+      <c r="C136" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D136" s="20">
+        <v>1963</v>
+      </c>
+      <c r="E136" s="17" t="s">
+        <v>499</v>
+      </c>
+      <c r="F136" s="13"/>
+      <c r="G136" s="13"/>
       <c r="H136" s="13"/>
-      <c r="I136" s="13"/>
-      <c r="J136" s="13"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="16" t="s">
-        <v>424</v>
-      </c>
-      <c r="B137" s="12"/>
-      <c r="C137" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="D137" s="12">
-        <v>2004</v>
-      </c>
-      <c r="E137" s="12" t="s">
-        <v>423</v>
-      </c>
-      <c r="F137" s="12"/>
+      <c r="A137" s="17" t="s">
+        <v>500</v>
+      </c>
+      <c r="B137" s="19"/>
+      <c r="C137" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D137" s="20">
+        <v>1963</v>
+      </c>
+      <c r="E137" s="17" t="s">
+        <v>501</v>
+      </c>
+      <c r="F137" s="13"/>
       <c r="G137" s="13"/>
       <c r="H137" s="13"/>
-      <c r="I137" s="13"/>
-      <c r="J137" s="13"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="9" t="s">
-        <v>419</v>
+        <v>502</v>
       </c>
       <c r="B138" s="10"/>
       <c r="C138" s="9" t="s">
-        <v>420</v>
+        <v>301</v>
       </c>
       <c r="D138" s="11">
-        <v>1991</v>
+        <v>1963</v>
       </c>
       <c r="E138" s="9" t="s">
-        <v>421</v>
+        <v>503</v>
       </c>
       <c r="F138" s="13"/>
       <c r="G138" s="13"/>
       <c r="H138" s="13"/>
-      <c r="I138" s="13"/>
-      <c r="J138" s="13"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="9" t="s">
-        <v>422</v>
+        <v>504</v>
       </c>
       <c r="B139" s="10"/>
       <c r="C139" s="9" t="s">
-        <v>400</v>
+        <v>301</v>
       </c>
       <c r="D139" s="11">
-        <v>2004</v>
+        <v>1963</v>
       </c>
       <c r="E139" s="9" t="s">
-        <v>423</v>
+        <v>505</v>
       </c>
       <c r="F139" s="13"/>
       <c r="G139" s="13"/>
       <c r="H139" s="13"/>
-      <c r="I139" s="13"/>
-      <c r="J139" s="13"/>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A140" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="D140" s="12">
-        <v>1964</v>
-      </c>
-      <c r="E140" s="12" t="s">
-        <v>427</v>
-      </c>
-      <c r="F140" s="12"/>
-      <c r="G140" s="12"/>
+      <c r="A140" s="17" t="s">
+        <v>506</v>
+      </c>
+      <c r="B140" s="19"/>
+      <c r="C140" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="D140" s="20">
+        <v>1963</v>
+      </c>
+      <c r="E140" s="17" t="s">
+        <v>507</v>
+      </c>
+      <c r="F140" s="13"/>
+      <c r="G140" s="13"/>
       <c r="H140" s="13"/>
-      <c r="I140" s="13"/>
-      <c r="J140" s="13"/>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A141" s="12" t="s">
-        <v>428</v>
-      </c>
-      <c r="B141" s="12"/>
-      <c r="C141" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="D141" s="12">
-        <v>1921</v>
-      </c>
-      <c r="E141" s="12" t="s">
-        <v>430</v>
-      </c>
-      <c r="F141" s="12"/>
-      <c r="G141" s="12"/>
+      <c r="A141" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="B141" s="19"/>
+      <c r="C141" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="D141" s="20">
+        <v>1997</v>
+      </c>
+      <c r="E141" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="F141" s="13"/>
+      <c r="G141" s="13"/>
       <c r="H141" s="13"/>
       <c r="I141" s="13"/>
       <c r="J141" s="13"/>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="B142" s="12"/>
       <c r="C142" s="12" t="s">
-        <v>363</v>
+        <v>346</v>
       </c>
       <c r="D142" s="12">
         <v>1997</v>
       </c>
       <c r="E142" s="12" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="F142" s="12"/>
       <c r="G142" s="12"/>
@@ -4894,21 +4739,19 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" s="13" t="s">
-        <v>433</v>
+        <v>414</v>
       </c>
       <c r="B143" s="13" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
       <c r="C143" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="D143" s="13"/>
-      <c r="E143" s="13"/>
-      <c r="F143" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>437</v>
+        <v>416</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>418</v>
       </c>
       <c r="H143" s="13"/>
       <c r="I143" s="13"/>
@@ -4916,17 +4759,17 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144" s="13" t="s">
-        <v>438</v>
+        <v>419</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="13" t="s">
-        <v>439</v>
+        <v>420</v>
       </c>
       <c r="D144" s="13">
         <v>1977</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="F144" s="13"/>
       <c r="G144" s="13"/>
@@ -4936,21 +4779,19 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="13" t="s">
-        <v>539</v>
+        <v>520</v>
       </c>
       <c r="B145" s="13" t="s">
-        <v>540</v>
+        <v>521</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>541</v>
-      </c>
-      <c r="D145" s="13"/>
-      <c r="E145" s="13"/>
-      <c r="F145" s="13" t="s">
-        <v>542</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>543</v>
+        <v>522</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>524</v>
       </c>
       <c r="H145" s="13"/>
       <c r="I145" s="13"/>
@@ -4958,19 +4799,19 @@
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="13" t="s">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="B146" s="13" t="s">
-        <v>442</v>
+        <v>423</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>443</v>
+        <v>424</v>
       </c>
       <c r="D146" s="13" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>444</v>
+        <v>425</v>
       </c>
       <c r="H146" s="13"/>
       <c r="I146" s="13"/>
@@ -4978,17 +4819,17 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="13" t="s">
-        <v>445</v>
+        <v>426</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="13" t="s">
-        <v>446</v>
+        <v>427</v>
       </c>
       <c r="D147" s="13">
         <v>1965</v>
       </c>
       <c r="E147" s="13" t="s">
-        <v>447</v>
+        <v>428</v>
       </c>
       <c r="F147" s="13"/>
       <c r="G147" s="13"/>
@@ -4998,21 +4839,19 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="13" t="s">
-        <v>448</v>
+        <v>429</v>
       </c>
       <c r="B148" s="13" t="s">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="C148" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13" t="s">
-        <v>451</v>
-      </c>
-      <c r="G148" s="13" t="s">
-        <v>452</v>
+        <v>431</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="E148" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="H148" s="13"/>
       <c r="I148" s="13"/>
@@ -5020,17 +4859,17 @@
     </row>
     <row r="149" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
-        <v>453</v>
+        <v>434</v>
       </c>
       <c r="B149" s="13"/>
       <c r="C149" s="13" t="s">
-        <v>454</v>
+        <v>435</v>
       </c>
       <c r="D149" s="13">
         <v>2004</v>
       </c>
       <c r="E149" s="13" t="s">
-        <v>455</v>
+        <v>436</v>
       </c>
       <c r="F149" s="13"/>
       <c r="G149" s="13"/>
@@ -5040,17 +4879,17 @@
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="9" t="s">
-        <v>456</v>
+        <v>437</v>
       </c>
       <c r="B150" s="10"/>
       <c r="C150" s="9" t="s">
-        <v>457</v>
+        <v>438</v>
       </c>
       <c r="D150" s="11">
         <v>1957</v>
       </c>
       <c r="E150" s="9" t="s">
-        <v>339</v>
+        <v>322</v>
       </c>
       <c r="F150" s="13"/>
       <c r="G150" s="13"/>
@@ -5058,17 +4897,17 @@
     </row>
     <row r="151" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
-        <v>458</v>
+        <v>439</v>
       </c>
       <c r="B151" s="13"/>
       <c r="C151" s="13" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="D151" s="13">
         <v>1971</v>
       </c>
       <c r="E151" s="13" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="F151" s="13"/>
       <c r="G151" s="13"/>
@@ -5077,17 +4916,17 @@
     </row>
     <row r="152" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="9" t="s">
-        <v>527</v>
+        <v>508</v>
       </c>
       <c r="B152" s="10"/>
       <c r="C152" s="9" t="s">
-        <v>528</v>
+        <v>509</v>
       </c>
       <c r="D152" s="11">
         <v>1990</v>
       </c>
       <c r="E152" s="9" t="s">
-        <v>529</v>
+        <v>510</v>
       </c>
       <c r="F152" s="13"/>
       <c r="G152" s="13"/>
@@ -5096,38 +4935,36 @@
     </row>
     <row r="153" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="9" t="s">
-        <v>464</v>
+        <v>445</v>
       </c>
       <c r="B153" s="9" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>462</v>
-      </c>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
+        <v>443</v>
+      </c>
+      <c r="D153" s="11">
+        <v>1968</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>444</v>
+      </c>
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
-      <c r="H153" s="11">
-        <v>1968</v>
-      </c>
-      <c r="I153" s="9" t="s">
-        <v>463</v>
-      </c>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="9" t="s">
-        <v>465</v>
+        <v>446</v>
       </c>
       <c r="B154" s="10"/>
       <c r="C154" s="9" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D154" s="11">
         <v>1963</v>
       </c>
       <c r="E154" s="9" t="s">
-        <v>467</v>
+        <v>448</v>
       </c>
       <c r="F154" s="13"/>
       <c r="G154" s="13"/>
@@ -5136,17 +4973,17 @@
     </row>
     <row r="155" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="9" t="s">
-        <v>468</v>
+        <v>449</v>
       </c>
       <c r="B155" s="10"/>
       <c r="C155" s="9" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D155" s="11">
         <v>1965</v>
       </c>
       <c r="E155" s="9" t="s">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="F155" s="13"/>
       <c r="G155" s="13"/>
@@ -5155,17 +4992,17 @@
     </row>
     <row r="156" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>470</v>
+        <v>451</v>
       </c>
       <c r="B156" s="13"/>
       <c r="C156" s="13" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D156" s="13">
         <v>1965</v>
       </c>
       <c r="E156" s="13" t="s">
-        <v>471</v>
+        <v>452</v>
       </c>
       <c r="F156" s="13"/>
       <c r="G156" s="13"/>
@@ -5176,17 +5013,17 @@
     </row>
     <row r="157" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="9" t="s">
-        <v>472</v>
+        <v>453</v>
       </c>
       <c r="B157" s="10"/>
       <c r="C157" s="9" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D157" s="11">
         <v>1966</v>
       </c>
       <c r="E157" s="9" t="s">
-        <v>473</v>
+        <v>454</v>
       </c>
       <c r="F157" s="13"/>
       <c r="G157" s="13"/>
@@ -5197,17 +5034,17 @@
     </row>
     <row r="158" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
-        <v>474</v>
+        <v>455</v>
       </c>
       <c r="B158" s="13"/>
       <c r="C158" s="13" t="s">
-        <v>466</v>
+        <v>447</v>
       </c>
       <c r="D158" s="13">
         <v>1967</v>
       </c>
       <c r="E158" s="13" t="s">
-        <v>475</v>
+        <v>456</v>
       </c>
       <c r="F158" s="13"/>
       <c r="G158" s="13"/>
@@ -5217,19 +5054,19 @@
     </row>
     <row r="159" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="9" t="s">
-        <v>476</v>
+        <v>457</v>
       </c>
       <c r="B159" s="9" t="s">
-        <v>477</v>
+        <v>458</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>478</v>
+        <v>459</v>
       </c>
       <c r="D159" s="11">
         <v>1967</v>
       </c>
       <c r="E159" s="9" t="s">
-        <v>463</v>
+        <v>444</v>
       </c>
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
@@ -5290,6 +5127,9 @@
       <c r="E208" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:L210">
+    <sortCondition ref="A1:A210"/>
+  </sortState>
   <printOptions gridLines="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -5297,7 +5137,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5309,7 +5149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
